--- a/medicine/Pharmacie/Commiphora_gileadensis/Commiphora_gileadensis.xlsx
+++ b/medicine/Pharmacie/Commiphora_gileadensis/Commiphora_gileadensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Commiphora gileadensis (synonyme Commiphora opobalsamum), le Baumier de la Mecque, est une espèce de plantes à fleurs de la famille des Burseraceae. C'est un arbre originaire du sud de l'Arabie et naturalisé, dans l'antiquité et de nouveau à l'époque moderne, dans l'ancienne Judée / Palestine / Israël.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique d'Afrique de l'Est et de la Péninsule arabique, naturellement présente dans les états de Djibouti, Érythrée, Éthiopie, Kenya, Oman, Arabie saoudite, Somalie, Soudan et Yémen[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique d'Afrique de l'Est et de la Péninsule arabique, naturellement présente dans les états de Djibouti, Érythrée, Éthiopie, Kenya, Oman, Arabie saoudite, Somalie, Soudan et Yémen.
 </t>
         </is>
       </c>
@@ -542,16 +556,53 @@
           <t>Baume de la Mecque ou baume de Galaad</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La résine de Commiphora gileadensis en est extraite et porte le nom de baume de Judée, baume de la Mecque ou baume de Galaad.
-C'est un liquide jaune doré, plus ou moins consistant, voire solide, d'une odeur suave rappelant celle du citron, de saveur amère et astringente[2].
-Elle était utilisée pour les soins de la peau, pour cicatriser les plaies et pour les maux d'estomac ou d'intestin[3].
+C'est un liquide jaune doré, plus ou moins consistant, voire solide, d'une odeur suave rappelant celle du citron, de saveur amère et astringente.
+Elle était utilisée pour les soins de la peau, pour cicatriser les plaies et pour les maux d'estomac ou d'intestin.
 Le plus célèbre site de production de baume de la région a été la ville juive de Ein Gedi. Ce baume a été utilisée pour la médecine et le parfum dans la Grèce antique et de l'Empire romain.
 Ainsi, Pline l'Ancien le mentionne comme l'un des ingrédients du "Parfum Royal" des Parthes dans son Naturalis Historia. En latin la résine est nommée opobalsamum, le fruit séché, carpobalsamum, et le bois, xylobalsamum.
 Lorsque le « baume » est mentionné dans les traductions de la Bible, cela ne sous-entend probablement que le produit. Sa relation littéraire avec Galaad vient de la Genèse chapitre 37 et de Jérémie chapitres 8 et 46 (cité ci-dessous).
-Origine
-De la version du Roi Jacques de la Bible :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Commiphora_gileadensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Commiphora_gileadensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Baume de la Mecque ou baume de Galaad</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De la version du Roi Jacques de la Bible :
 « Une compagnie d'Ismaélites venait de Galaad avec leurs chameaux portant des épices et du baume et de la myrrhe, faisant route vers l'Égypte. »
 — Genèse 37,25.
 « N’y a-t-il point de baume en Galaad ?
@@ -569,35 +620,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Commiphora_gileadensis</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Commiphora_gileadensis</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été initialement classée dans le genre Amyris sous le basionyme Amyris gileadensis par le naturaliste suédois Carl von Linné en 1764. Elle est déplacée en 1922 dans le genre Commiphora sous le nom correct Commiphora gileadensis, par le botaniste danois Carl Frederik Albert Christensen[1].
-Ce taxon porte en français le nom vernaculaire ou normalisé « Baumier de la Mecque »[4].
-Commiphora gileadensis a pour synonymes[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été initialement classée dans le genre Amyris sous le basionyme Amyris gileadensis par le naturaliste suédois Carl von Linné en 1764. Elle est déplacée en 1922 dans le genre Commiphora sous le nom correct Commiphora gileadensis, par le botaniste danois Carl Frederik Albert Christensen.
+Ce taxon porte en français le nom vernaculaire ou normalisé « Baumier de la Mecque ».
+Commiphora gileadensis a pour synonymes :
 Amyris gileadensis L.
 Amyris opobalsamum L.
 Balsamea gileadensis (L.) Oken
